--- a/CPUE_Los_Lagos_MaC/estandarizacion_segun_informe/con_info_elson/CPUE_MODELOS.xlsx
+++ b/CPUE_Los_Lagos_MaC/estandarizacion_segun_informe/con_info_elson/CPUE_MODELOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\macristina.perez\Documents\GitHub\SARAULAGOS_0621\CPUE_Los_Lagos_MaC\estandarizacion_segun_informe\con_info_elson\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7359FF89-286B-444B-81F9-85EFAE3BE86C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B74A74-1668-4096-A0F7-9D52F88E123A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-24" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="52">
   <si>
     <t>Mod2</t>
   </si>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t xml:space="preserve">                                                                                                                                                                                                                                           </t>
+  </si>
+  <si>
+    <t>lognormal</t>
   </si>
 </sst>
 </file>
@@ -4962,16 +4965,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>43180</xdr:colOff>
+      <xdr:colOff>669290</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>59690</xdr:rowOff>
+      <xdr:rowOff>86360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5651,10 +5654,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51440F87-4FA9-4B61-88E6-F18AA9439D18}">
-  <dimension ref="A1:T56"/>
+  <dimension ref="A1:T119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E9" workbookViewId="0">
-      <selection activeCell="T36" sqref="T36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6004,7 +6007,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="3:19" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:20" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D17" s="3" t="s">
         <v>29</v>
       </c>
@@ -6045,8 +6048,11 @@
       <c r="S17" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" ht="15.5" x14ac:dyDescent="0.35">
       <c r="D18" s="3" t="s">
         <v>18</v>
       </c>
@@ -6094,8 +6100,11 @@
       <c r="S18" s="32">
         <v>30.715679999999999</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T18">
+        <v>18.567721200000001</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" ht="15.5" x14ac:dyDescent="0.35">
       <c r="D19" s="3" t="s">
         <v>19</v>
       </c>
@@ -6139,8 +6148,11 @@
       <c r="S19" s="33">
         <v>28.02693</v>
       </c>
-    </row>
-    <row r="20" spans="3:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T19">
+        <v>16.4714496</v>
+      </c>
+    </row>
+    <row r="20" spans="3:20" ht="15.5" x14ac:dyDescent="0.35">
       <c r="D20" s="3" t="s">
         <v>20</v>
       </c>
@@ -6184,8 +6196,11 @@
       <c r="S20" s="33">
         <v>30.240629999999999</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T20">
+        <v>23.130604699999999</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" ht="15.5" x14ac:dyDescent="0.35">
       <c r="D21" s="3" t="s">
         <v>30</v>
       </c>
@@ -6229,8 +6244,11 @@
       <c r="S21" s="33">
         <v>19.327590000000001</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="T21">
+        <v>14.6111708</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C22" s="28"/>
       <c r="D22" s="29" t="s">
         <v>31</v>
@@ -6275,8 +6293,11 @@
       <c r="S22" s="34">
         <v>21.57779</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="T22">
+        <v>10.458314</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.35">
       <c r="M23">
         <v>2012</v>
       </c>
@@ -6298,8 +6319,11 @@
       <c r="S23" s="34">
         <v>16.112390000000001</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="T23">
+        <v>9.5541055000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.35">
       <c r="M24">
         <v>2013</v>
       </c>
@@ -6321,8 +6345,11 @@
       <c r="S24" s="34">
         <v>28.109780000000001</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="T24">
+        <v>42.462029999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.35">
       <c r="M25">
         <v>2014</v>
       </c>
@@ -6344,8 +6371,11 @@
       <c r="S25" s="34">
         <v>35.951189999999997</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="T25">
+        <v>17.772180500000001</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.35">
       <c r="M26">
         <v>2015</v>
       </c>
@@ -6367,8 +6397,11 @@
       <c r="S26" s="34">
         <v>37.677900000000001</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="T26">
+        <v>11.188825700000001</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.35">
       <c r="M27">
         <v>2016</v>
       </c>
@@ -6390,8 +6423,11 @@
       <c r="S27" s="34">
         <v>30.315670000000001</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="T27">
+        <v>14.527273299999999</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.35">
       <c r="M28">
         <v>2017</v>
       </c>
@@ -6413,8 +6449,11 @@
       <c r="S28" s="34">
         <v>21.979050000000001</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="T28">
+        <v>6.3330656000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.35">
       <c r="M29">
         <v>2018</v>
       </c>
@@ -6436,8 +6475,11 @@
       <c r="S29" s="35">
         <v>15.664770000000001</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="T29">
+        <v>0.73073080000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="M30">
         <v>2019</v>
       </c>
@@ -6459,8 +6501,11 @@
       <c r="S30" s="36">
         <v>20.974830000000001</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="T30">
+        <v>0.63908869999999995</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.35">
       <c r="M31">
         <v>2020</v>
       </c>
@@ -6475,6 +6520,9 @@
       </c>
       <c r="R31">
         <v>29.66262</v>
+      </c>
+      <c r="T31">
+        <v>37.080570199999997</v>
       </c>
     </row>
     <row r="36" spans="7:20" x14ac:dyDescent="0.35">
@@ -6607,6 +6655,76 @@
       </c>
       <c r="J56" s="26">
         <v>21063</v>
+      </c>
+    </row>
+    <row r="106" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G106">
+        <v>18.567721200000001</v>
+      </c>
+    </row>
+    <row r="107" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G107">
+        <v>16.4714496</v>
+      </c>
+    </row>
+    <row r="108" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G108">
+        <v>23.130604699999999</v>
+      </c>
+    </row>
+    <row r="109" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G109">
+        <v>14.6111708</v>
+      </c>
+    </row>
+    <row r="110" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G110">
+        <v>10.458314</v>
+      </c>
+    </row>
+    <row r="111" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G111">
+        <v>9.5541055000000004</v>
+      </c>
+    </row>
+    <row r="112" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G112">
+        <v>42.462029999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G113">
+        <v>17.772180500000001</v>
+      </c>
+    </row>
+    <row r="114" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G114">
+        <v>11.188825700000001</v>
+      </c>
+    </row>
+    <row r="115" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G115">
+        <v>14.527273299999999</v>
+      </c>
+    </row>
+    <row r="116" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G116">
+        <v>6.3330656000000003</v>
+      </c>
+    </row>
+    <row r="117" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G117">
+        <v>0.73073080000000001</v>
+      </c>
+    </row>
+    <row r="118" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G118">
+        <v>0.63908869999999995</v>
+      </c>
+    </row>
+    <row r="119" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G119">
+        <v>37.080570199999997</v>
       </c>
     </row>
   </sheetData>
